--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -35,12 +35,6 @@
     <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;</t>
   </si>
   <si>
-    <t>Информационные Технологии</t>
-  </si>
-  <si>
-    <t>Московский Придуманный Институт;Московский Выдуманный Университет;</t>
-  </si>
-  <si>
     <t>Финансы</t>
   </si>
   <si>
@@ -51,6 +45,12 @@
   </si>
   <si>
     <t>Казанский Университет Вычислений;Воронежский Литературно-Переводческий Университет;</t>
+  </si>
+  <si>
+    <t>Информационные Технологии</t>
+  </si>
+  <si>
+    <t>Московский Придуманный Институт;Московский Выдуманный Университет;</t>
   </si>
 </sst>
 </file>
@@ -146,13 +146,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>4.539999961853027</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -169,7 +169,7 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -180,10 +180,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
         <v>2.0</v>
